--- a/data/trans_orig/IP19C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14667F0A-ED82-43B9-9D35-716E942FBCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A71D57-3EEA-4D1A-A53D-E4B072B8CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C2F2C5C-EBFE-4B0F-A057-B631F2AE08EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF1AF0EC-FC77-4ED1-89CC-0E987EA24774}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="286">
   <si>
     <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>10,2%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>8,2%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>91,8%</t>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -191,673 +197,661 @@
     <t>12,59%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2015 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>85,02%</t>
+    <t>84,87%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>90,92%</t>
+    <t>91,88%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>8,6%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>91,4%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>94,03%</t>
   </si>
   <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>19,11%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>87,58%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>80,89%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>7,78%</t>
@@ -866,31 +860,31 @@
     <t>5,55%</t>
   </si>
   <si>
-    <t>10,63%</t>
+    <t>10,37%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>89,37%</t>
+    <t>89,63%</t>
   </si>
   <si>
     <t>94,45%</t>
@@ -899,10 +893,10 @@
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695AA956-5B7A-46ED-B387-22974D1FCC9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF871DFC-9545-4B25-BEA4-CF78CA5C909D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1629,7 +1623,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,13 +1638,13 @@
         <v>220661</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>307</v>
@@ -1659,13 +1653,13 @@
         <v>203930</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>642</v>
@@ -1674,13 +1668,13 @@
         <v>424592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,7 +1730,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1748,13 +1742,13 @@
         <v>9203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1763,13 +1757,13 @@
         <v>12411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -1778,13 +1772,13 @@
         <v>21615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,13 +1793,13 @@
         <v>63914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -1814,13 +1808,13 @@
         <v>63272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>188</v>
@@ -1829,13 +1823,13 @@
         <v>127185</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,13 +1897,13 @@
         <v>36227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -1918,13 +1912,13 @@
         <v>42898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>115</v>
@@ -1933,13 +1927,13 @@
         <v>79125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1948,13 @@
         <v>325504</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
@@ -1969,13 +1963,13 @@
         <v>308032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>952</v>
@@ -1984,13 +1978,13 @@
         <v>633536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,7 +2040,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0784F62B-38FE-4B49-B55D-4FC2765B185C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EFD740-0E80-44A7-9DD7-5DFF5F83EFB7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2082,7 +2076,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2189,13 +2183,13 @@
         <v>3107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2204,13 +2198,13 @@
         <v>3957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2219,13 +2213,13 @@
         <v>7064</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2234,13 @@
         <v>39856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -2255,13 +2249,13 @@
         <v>44007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -2270,13 +2264,13 @@
         <v>83864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2338,13 @@
         <v>18858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2359,13 +2353,13 @@
         <v>16194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -2374,13 +2368,13 @@
         <v>35052</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2389,13 @@
         <v>222055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>291</v>
@@ -2410,13 +2404,13 @@
         <v>204284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>611</v>
@@ -2425,13 +2419,13 @@
         <v>426339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2481,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2493,13 @@
         <v>14188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2514,13 +2508,13 @@
         <v>14186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -2529,13 +2523,13 @@
         <v>28374</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2544,13 @@
         <v>67937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -2565,13 +2559,13 @@
         <v>72098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>198</v>
@@ -2580,13 +2574,13 @@
         <v>140036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2648,13 @@
         <v>36153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -2669,13 +2663,13 @@
         <v>34337</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -2684,13 +2678,13 @@
         <v>70490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2699,13 @@
         <v>329849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>455</v>
@@ -2720,13 +2714,13 @@
         <v>320390</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -2735,13 +2729,13 @@
         <v>650239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2791,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CC4467-6BAA-4EFC-9741-2B77F7188BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BFFB18-45E4-434F-8A56-B222B0055D28}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2833,7 +2827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2940,13 +2934,13 @@
         <v>1777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2955,13 +2949,13 @@
         <v>836</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2970,13 +2964,13 @@
         <v>2613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2985,13 @@
         <v>26364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3006,13 +3000,13 @@
         <v>21303</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -3021,13 +3015,13 @@
         <v>47667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3089,13 @@
         <v>9788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3110,13 +3104,13 @@
         <v>18536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3125,13 +3119,13 @@
         <v>28324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3140,13 @@
         <v>242382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>343</v>
@@ -3161,13 +3155,13 @@
         <v>234204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>676</v>
@@ -3176,13 +3170,13 @@
         <v>476585</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3232,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3250,13 +3244,13 @@
         <v>9331</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3265,13 +3259,13 @@
         <v>10320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3280,13 +3274,13 @@
         <v>19651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3295,13 @@
         <v>78367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -3316,13 +3310,13 @@
         <v>78198</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3331,13 +3325,13 @@
         <v>156565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3399,13 @@
         <v>20895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -3420,13 +3414,13 @@
         <v>29692</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -3435,13 +3429,13 @@
         <v>50587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3450,13 @@
         <v>347113</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
@@ -3471,13 +3465,13 @@
         <v>333704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>967</v>
@@ -3548,7 +3542,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B692E3ED-3D49-4C81-AA18-E0A0BE8698B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18C2545-0ACC-4C14-B7A4-CAA21E4B33F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3706,13 +3700,13 @@
         <v>1252</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3721,13 +3715,13 @@
         <v>1252</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,10 +3736,10 @@
         <v>24429</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3757,13 +3751,13 @@
         <v>27887</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -3772,13 +3766,13 @@
         <v>52316</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3840,13 @@
         <v>17459</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3861,13 +3855,13 @@
         <v>17146</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3876,13 +3870,13 @@
         <v>34605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3891,13 @@
         <v>293272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>345</v>
@@ -3989,7 +3983,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4001,7 +3995,7 @@
         <v>10076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>254</v>
@@ -4019,10 +4013,10 @@
         <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4031,13 +4025,13 @@
         <v>22802</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4046,13 @@
         <v>119567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -4067,13 +4061,13 @@
         <v>89708</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
@@ -4082,13 +4076,13 @@
         <v>209276</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4150,13 @@
         <v>27535</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4171,13 +4165,13 @@
         <v>31124</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -4186,13 +4180,13 @@
         <v>58660</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>437268</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -4222,13 +4216,13 @@
         <v>368900</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
@@ -4237,13 +4231,13 @@
         <v>806166</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,7 +4293,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A71D57-3EEA-4D1A-A53D-E4B072B8CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0744C1E-688E-437F-9B9A-AEC23CC9B536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF1AF0EC-FC77-4ED1-89CC-0E987EA24774}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3A1E55BB-2E63-4A0A-B8A2-0878D48C99A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="286">
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2007 (Tasa respuesta: 50,71%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="292">
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 50,71%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,829 +74,847 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 49,02%)</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 48,82%)</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2012 (Tasa respuesta: 49,02%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2016 (Tasa respuesta: 48,82%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>98,76%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por ortodonceia en 2023 (Tasa respuesta: 58,54%)</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF871DFC-9545-4B25-BEA4-CF78CA5C909D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD9D8AF-6943-47E6-9B96-88580495EABB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1426,10 +1444,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>1962</v>
+        <v>6095</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1441,10 +1459,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>6095</v>
+        <v>1962</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1480,7 +1498,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>40929</v>
+        <v>40831</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1495,7 +1513,7 @@
         <v>61</v>
       </c>
       <c r="I5" s="7">
-        <v>40831</v>
+        <v>40929</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1528,25 +1546,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1581,10 +1599,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>25062</v>
+        <v>24392</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1596,10 +1614,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>24392</v>
+        <v>25062</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1632,10 +1650,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D8" s="7">
-        <v>220661</v>
+        <v>203930</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1647,10 +1665,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>203930</v>
+        <v>220661</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1683,25 +1701,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1736,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>9203</v>
+        <v>12411</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1751,10 +1769,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>12411</v>
+        <v>9203</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1787,10 +1805,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7">
-        <v>63914</v>
+        <v>63272</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1802,10 +1820,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I11" s="7">
-        <v>63272</v>
+        <v>63914</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1841,7 +1859,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1856,7 +1874,7 @@
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1891,10 +1909,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>36227</v>
+        <v>42898</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1906,10 +1924,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>42898</v>
+        <v>36227</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1942,10 +1960,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D14" s="7">
-        <v>325504</v>
+        <v>308032</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1957,10 +1975,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="I14" s="7">
-        <v>308032</v>
+        <v>325504</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1993,25 +2011,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EFD740-0E80-44A7-9DD7-5DFF5F83EFB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C088331-C2FF-4267-B32C-FDCF09B5267C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2177,10 +2195,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3107</v>
+        <v>3957</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2192,10 +2210,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>3957</v>
+        <v>3107</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2228,10 +2246,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7">
-        <v>39856</v>
+        <v>44007</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2243,10 +2261,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7">
-        <v>44007</v>
+        <v>39856</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2279,25 +2297,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2350,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>18858</v>
+        <v>16194</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2347,10 +2365,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>16194</v>
+        <v>18858</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2383,10 +2401,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D8" s="7">
-        <v>222055</v>
+        <v>204284</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2398,10 +2416,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>204284</v>
+        <v>222055</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2434,25 +2452,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>315</v>
+      </c>
+      <c r="D9" s="7">
+        <v>220478</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240913</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>315</v>
-      </c>
-      <c r="I9" s="7">
-        <v>220478</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2487,10 +2505,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>14188</v>
+        <v>14186</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2502,10 +2520,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>14186</v>
+        <v>14188</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2538,10 +2556,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>67937</v>
+        <v>72098</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>134</v>
@@ -2553,10 +2571,10 @@
         <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I11" s="7">
-        <v>72098</v>
+        <v>67937</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>137</v>
@@ -2589,25 +2607,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>121</v>
+      </c>
+      <c r="D12" s="7">
+        <v>86284</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>121</v>
-      </c>
-      <c r="I12" s="7">
-        <v>86284</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2642,10 +2660,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>36153</v>
+        <v>34337</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2654,22 +2672,22 @@
         <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>34337</v>
+        <v>36153</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -2678,13 +2696,13 @@
         <v>70490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,34 +2711,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>455</v>
+      </c>
+      <c r="D14" s="7">
+        <v>320390</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7">
         <v>472</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>329849</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="7">
-        <v>455</v>
-      </c>
-      <c r="I14" s="7">
-        <v>320390</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -2729,13 +2747,13 @@
         <v>650239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,25 +2762,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>505</v>
+      </c>
+      <c r="D15" s="7">
+        <v>354727</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>366002</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>505</v>
-      </c>
-      <c r="I15" s="7">
-        <v>354727</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2810,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BFFB18-45E4-434F-8A56-B222B0055D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA08AEBD-E132-4FC2-9BFB-54892AFD553C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,7 +2845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2928,34 +2946,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>836</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1777</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>836</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2964,13 +2982,13 @@
         <v>2613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,34 +2997,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21303</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="7">
         <v>37</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>26364</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="7">
-        <v>32</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21303</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -3015,13 +3033,13 @@
         <v>47667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,25 +3048,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28141</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22139</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3083,34 +3101,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18536</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>9788</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7">
-        <v>18536</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3119,13 +3137,13 @@
         <v>28324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,34 +3152,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>343</v>
+      </c>
+      <c r="D8" s="7">
+        <v>234204</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="7">
         <v>333</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>242382</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="7">
-        <v>343</v>
-      </c>
-      <c r="I8" s="7">
-        <v>234204</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>676</v>
@@ -3170,13 +3188,13 @@
         <v>476585</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,25 +3203,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>370</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252170</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>370</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3241,31 +3259,31 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>9331</v>
+        <v>10320</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>10320</v>
+        <v>9331</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3274,13 +3292,13 @@
         <v>19651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,34 +3307,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>112</v>
+      </c>
+      <c r="D11" s="7">
+        <v>78198</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="7">
         <v>110</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>78367</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="7">
-        <v>112</v>
-      </c>
-      <c r="I11" s="7">
-        <v>78198</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3325,13 +3343,13 @@
         <v>156565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,25 +3358,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7">
+        <v>88518</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>125</v>
-      </c>
-      <c r="I12" s="7">
-        <v>88518</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3393,34 +3411,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
+        <v>29692</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="7">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7">
         <v>20895</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29692</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -3429,13 +3447,13 @@
         <v>50587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,49 +3462,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>487</v>
+      </c>
+      <c r="D14" s="7">
+        <v>333704</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="7">
         <v>480</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>347113</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" s="7">
-        <v>487</v>
-      </c>
-      <c r="I14" s="7">
-        <v>333704</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>967</v>
       </c>
       <c r="N14" s="7">
-        <v>680817</v>
+        <v>680818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,25 +3513,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>528</v>
+      </c>
+      <c r="D15" s="7">
+        <v>363396</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>368008</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>528</v>
-      </c>
-      <c r="I15" s="7">
-        <v>363396</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3528,7 +3546,7 @@
         <v>1038</v>
       </c>
       <c r="N15" s="7">
-        <v>731404</v>
+        <v>731405</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3561,7 +3579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18C2545-0ACC-4C14-B7A4-CAA21E4B33F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704C2158-DB51-4DCA-8940-67AC49F3A777}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3578,7 +3596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3679,49 +3697,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1310</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1252</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1252</v>
+        <v>1310</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,49 +3748,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28420</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="7">
         <v>31</v>
       </c>
-      <c r="D5" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>35</v>
-      </c>
       <c r="I5" s="7">
-        <v>27887</v>
+        <v>25484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>52316</v>
+        <v>53904</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,25 +3799,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37</v>
-      </c>
       <c r="I6" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3832,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3834,49 +3852,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16737</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="7">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
-        <v>17459</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H7" s="7">
-        <v>22</v>
-      </c>
       <c r="I7" s="7">
-        <v>17146</v>
+        <v>17737</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>34605</v>
+        <v>34474</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +3903,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>345</v>
+      </c>
+      <c r="D8" s="7">
+        <v>245090</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="7">
         <v>351</v>
       </c>
-      <c r="D8" s="7">
-        <v>293272</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="7">
-        <v>345</v>
-      </c>
       <c r="I8" s="7">
-        <v>251303</v>
+        <v>305278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
       </c>
       <c r="N8" s="7">
-        <v>544576</v>
+        <v>550368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,25 +3954,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>367</v>
+      </c>
+      <c r="D9" s="7">
+        <v>261827</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
-        <v>310731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>367</v>
-      </c>
       <c r="I9" s="7">
-        <v>268449</v>
+        <v>323015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3969,7 +3987,7 @@
         <v>739</v>
       </c>
       <c r="N9" s="7">
-        <v>579181</v>
+        <v>584842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3989,49 +4007,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12311</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
-        <v>10076</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
       <c r="I10" s="7">
-        <v>12727</v>
+        <v>10143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>22802</v>
+        <v>22454</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +4058,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>134</v>
+      </c>
+      <c r="D11" s="7">
+        <v>87765</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="7">
         <v>153</v>
       </c>
-      <c r="D11" s="7">
-        <v>119567</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="7">
-        <v>134</v>
-      </c>
       <c r="I11" s="7">
-        <v>89708</v>
+        <v>125802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>287</v>
       </c>
       <c r="N11" s="7">
-        <v>209276</v>
+        <v>213567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,25 +4109,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>150</v>
-      </c>
       <c r="I12" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4124,7 +4142,7 @@
         <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4144,49 +4162,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7">
+        <v>30358</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="7">
         <v>35</v>
       </c>
-      <c r="D13" s="7">
-        <v>27535</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H13" s="7">
-        <v>40</v>
-      </c>
       <c r="I13" s="7">
-        <v>31124</v>
+        <v>27880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>58660</v>
+        <v>58238</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +4213,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>514</v>
+      </c>
+      <c r="D14" s="7">
+        <v>361275</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="7">
         <v>535</v>
       </c>
-      <c r="D14" s="7">
-        <v>437268</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="7">
-        <v>514</v>
-      </c>
       <c r="I14" s="7">
-        <v>368900</v>
+        <v>456564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>1049</v>
       </c>
       <c r="N14" s="7">
-        <v>806166</v>
+        <v>817838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,25 +4264,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>554</v>
+      </c>
+      <c r="D15" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>554</v>
-      </c>
       <c r="I15" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4279,7 +4297,7 @@
         <v>1124</v>
       </c>
       <c r="N15" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
